--- a/build-a-computer/nand2tetris/projects/02/Tasks02.xlsx
+++ b/build-a-computer/nand2tetris/projects/02/Tasks02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Task</t>
   </si>
@@ -51,6 +51,30 @@
 sum1, carry1 = HalfAdder(a, b)
 sum, carry2 = HaldAdder(sum1, c)
 carry = carry1 or carry2</t>
+  </si>
+  <si>
+    <t>CHIP Add16 {
+    IN a[16], b[16];
+    OUT out[16];
+    PARTS:
+    // Put you code here:
+    FullAdder(a=a[0], b=b[0], c=false, sum=out[0], carry=carry0);
+    FullAdder(a=a[1], b=b[1], c=carry0, sum=out[1], carry=carry1);
+    FullAdder(a=a[2], b=b[2], c=carry1, sum=out[2], carry=carry2);
+    FullAdder(a=a[3], b=b[3], c=carry2, sum=out[3], carry=carry3);
+    FullAdder(a=a[4], b=b[4], c=carry3, sum=out[4], carry=carry4);
+    FullAdder(a=a[5], b=b[5], c=carry4, sum=out[5], carry=carry5);
+    FullAdder(a=a[6], b=b[6], c=carry5, sum=out[6], carry=carry6);
+    FullAdder(a=a[7], b=b[7], c=carry6, sum=out[7], carry=carry7);
+    FullAdder(a=a[8], b=b[8], c=carry7, sum=out[8], carry=carry8);
+    FullAdder(a=a[9], b=b[9], c=carry8, sum=out[9], carry=carry9);
+    FullAdder(a=a[10], b=b[10], c=carry9, sum=out[10], carry=carry10);
+    FullAdder(a=a[11], b=b[11], c=carry10, sum=out[11], carry=carry11);
+    FullAdder(a=a[12], b=b[12], c=carry11, sum=out[12], carry=carry12);
+    FullAdder(a=a[13], b=b[13], c=carry12, sum=out[13], carry=carry13);
+    FullAdder(a=a[14], b=b[14], c=carry13, sum=out[14], carry=carry14);
+    FullAdder(a=a[15], b=b[15], c=carry14, sum=out[15], carry=carry15);
+}</t>
   </si>
 </sst>
 </file>
@@ -425,7 +449,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,12 +501,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/build-a-computer/nand2tetris/projects/02/Tasks02.xlsx
+++ b/build-a-computer/nand2tetris/projects/02/Tasks02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,101 @@
     FullAdder(a=a[13], b=b[13], c=carry12, sum=out[13], carry=carry13);
     FullAdder(a=a[14], b=b[14], c=carry13, sum=out[14], carry=carry14);
     FullAdder(a=a[15], b=b[15], c=carry14, sum=out[15], carry=carry15);
+}</t>
+  </si>
+  <si>
+    <t>CHIP Inc16 {
+    IN in[16];
+    OUT out[16];
+    PARTS:
+   // Put you code here:
+   Add16(a=in, b[0]=true, b[1..15]=false, out=out);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIP ALU {
+    IN  
+        x[16], y[16],  // 16-bit inputs        
+        zx, // zero the x input?
+        nx, // negate the x input?
+        zy, // zero the y input?
+        ny, // negate the y input?
+        f,  // compute out = x + y (if 1) or x &amp; y (if 0)
+        no; // negate the out output?
+    OUT 
+        out[16], // 16-bit output
+        zr, // 1 if (out == 0), 0 otherwise
+        ng; // 1 if (out &lt; 0),  0 otherwise
+    PARTS:
+    // Put you code here:
+    // handle zx and zy, here made a mistake, sel should be zy not zx 
+in second line
+    Mux16(a=x, b=false, sel=zx, out=x1);
+    Mux16(a=y, b=false, sel=zy, out=y1);
+    // handle nx and ny, use Mux16 since we didn't implement Xor16
+    Not16(in=x1, out=nx1);
+    Not16(in=y1, out=ny1);
+    Mux16(a=x1, b=nx1, sel=nx, out=x2);
+    Mux16(a=y1, b=ny1, sel=ny, out=y2);
+    // handle f, here made a mistake for switching the order of "and" 
+and "add", f=0 is add, f=1 is add
+    And16(a=x2, b=y2, out=outAnd);
+    Add16(a=x2, b=y2, out=outAdd);
+    Mux16(a=outAnd, b=outAdd, sel=f, out=out1);
+    // handle no
+    Not16(in=out1, out=nout1);
+    // handle out and ng, since subscript cannot be used in right of 
+"=", take care
+    Mux16(a=out1, b=nout1, sel=no, out[0..7]=lefthalf, out[8..15]
+=righthalf, out[15]=ng, out=out);
+    // handle zr
+    Or8Way(in=lefthalf, out=nzr1);
+    Or8Way(in=righthalf, out=nzr2);
+    Or(a=nzr1, b=nzr2, out=nzr);
+    Not(in=nzr, out=zr);
+}
+// How to test a chip fully coverage, it's an interesting question. </t>
+  </si>
+  <si>
+    <t>HalfAdder</t>
+  </si>
+  <si>
+    <t>FullAdder</t>
+  </si>
+  <si>
+    <t>Add16</t>
+  </si>
+  <si>
+    <t>Inc16</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CHIP FullAdder {
+    IN a, b, c;  // 1-bit inputs
+    OUT sum,     // Right bit of a + b + c
+        carry;   // Left bit of a + b + c
+    PARTS:
+    // Put you code here:
+    HalfAdder(a=a, b=b, sum=sum1, carry=carry1);
+    HalfAdder(a=sum1, b=c, sum=sum, carry=carry2);
+    Or(a=carry1, b=carry2, out=carry);
+}</t>
+  </si>
+  <si>
+    <t>CHIP HalfAdder {
+    IN a, b;    // 1-bit inputs
+    OUT sum,    // Right bit of a + b 
+        carry;  // Left bit of a + b
+    PARTS:
+    // Put you code here:
+    Xor(a=a, b=b, out=sum);
+    And(a=a, b=b, out=carry);
 }</t>
   </si>
 </sst>
@@ -144,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C4:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,55 +581,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:6" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:6" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43166</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
@@ -539,7 +663,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
     </row>
@@ -547,7 +671,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
     </row>
@@ -555,7 +679,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
     </row>
@@ -563,7 +687,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
     </row>
@@ -571,7 +695,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
@@ -579,7 +703,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
@@ -587,7 +711,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
     </row>
@@ -595,7 +719,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
     </row>
@@ -603,7 +727,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
     </row>
